--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value102.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value102.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.208449351531333</v>
+        <v>2.856545209884644</v>
       </c>
       <c r="B1">
-        <v>2.447699251194765</v>
+        <v>2.718640565872192</v>
       </c>
       <c r="C1">
-        <v>5.481199085704978</v>
+        <v>2.370614767074585</v>
       </c>
       <c r="D1">
-        <v>1.539325495281653</v>
+        <v>1.585410952568054</v>
       </c>
       <c r="E1">
-        <v>0.742520965256417</v>
+        <v>0.8602614998817444</v>
       </c>
     </row>
   </sheetData>
